--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Local_setup" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Status</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>1CTYKZ61N3</t>
+  </si>
+  <si>
+    <t>Gtaeway</t>
+  </si>
+  <si>
+    <t>Microservice</t>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>Gateway (Spring cloud routing)</t>
+  </si>
+  <si>
+    <t>Eureka Discovery Client</t>
+  </si>
+  <si>
+    <t>Config Client</t>
+  </si>
+  <si>
+    <t>Spring boot Actuator</t>
   </si>
 </sst>
 </file>
@@ -111,7 +132,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +196,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -588,12 +616,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Status</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>Spring boot Actuator</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Postgre sql</t>
+  </si>
+  <si>
+    <t>Lombok</t>
+  </si>
+  <si>
+    <t>Spring data jpa</t>
+  </si>
+  <si>
+    <t>Spring Web</t>
+  </si>
+  <si>
+    <t>config client</t>
+  </si>
+  <si>
+    <t>Eureka discovery client</t>
+  </si>
+  <si>
+    <t>Spring Boot Actuator</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>School</t>
   </si>
 </sst>
 </file>
@@ -616,10 +646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -628,35 +658,123 @@
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Local_setup" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Status</t>
   </si>
@@ -133,6 +133,20 @@
   </si>
   <si>
     <t>School</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>initialize server :
+initdb.exe -U admin -A password -W -E utf8  -D C:\PostGreSQL\data
+To start db server :
+pg_ctl -D ^"C^:^\PostGreSQL^\data^" -l logfile start</t>
+  </si>
+  <si>
+    <t>installed
+username : admin
+password : admin@123</t>
   </si>
 </sst>
 </file>
@@ -523,15 +537,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -556,6 +570,17 @@
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -648,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Local_setup" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Status</t>
   </si>
@@ -147,6 +147,12 @@
     <t>installed
 username : admin
 password : admin@123</t>
+  </si>
+  <si>
+    <t>pg_ctl -D ^"C^:^\PostGreSQL^\data^" -l logfile start</t>
+  </si>
+  <si>
+    <t>openfeign</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,7 +554,7 @@
     <col min="3" max="3" width="61.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -556,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -564,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -572,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75">
+    <row r="4" spans="1:4" ht="75">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -582,8 +588,11 @@
       <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -591,12 +600,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:4" ht="30">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -604,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -612,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:4" ht="45">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -620,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -671,10 +680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,6 +811,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Local_setup" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Local_setup" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Status</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>1CTYKZ61N3</t>
-  </si>
-  <si>
-    <t>Gtaeway</t>
   </si>
   <si>
     <t>Microservice</t>
@@ -153,13 +150,28 @@
   </si>
   <si>
     <t>openfeign</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Eureka Server</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Config-server</t>
+  </si>
+  <si>
+    <t>Config server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +193,29 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +234,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -225,11 +273,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,8 +415,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -580,16 +781,16 @@
     </row>
     <row r="4" spans="1:4" ht="75">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -680,143 +881,213 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="A28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="11">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C6" s="20">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="20">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>8090</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C19" s="29">
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C7">
-        <v>8091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
+      <c r="C20" s="32"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+      <c r="C21" s="32"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+      <c r="C22" s="32"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+      <c r="C23" s="32"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
+      <c r="C24" s="32"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>8092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>42</v>
+      <c r="C25" s="32"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="35"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="38">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -745,7 +745,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="A28:C28"/>
     </sheetView>
   </sheetViews>

--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -4,67 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Local_setup" sheetId="1" r:id="rId1"/>
-    <sheet name="Tips" sheetId="2" r:id="rId2"/>
-    <sheet name="SchoolManagementProject" sheetId="3" r:id="rId3"/>
+    <sheet name="Tips" sheetId="2" r:id="rId1"/>
+    <sheet name="SchoolManagementProject" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>Installed</t>
-  </si>
-  <si>
-    <t>Intellij</t>
-  </si>
-  <si>
-    <t>installed</t>
-  </si>
-  <si>
-    <t>AWS Account</t>
-  </si>
-  <si>
-    <t>Software/Credential</t>
-  </si>
-  <si>
-    <t>Setup done</t>
-  </si>
-  <si>
-    <t>tanspra@gmail.com
-Password : M@Aws</t>
-  </si>
-  <si>
-    <t>Storage repository</t>
-  </si>
-  <si>
-    <t>https://github.com/tanspra/Storage.git</t>
-  </si>
-  <si>
-    <t>git local setup</t>
-  </si>
-  <si>
-    <t>https://docs.github.com/en/migrations/importing-source-code/using-the-command-line-to-import-source-code/adding-locally-hosted-code-to-github#adding-a-local-repository-to-github-using-git</t>
-  </si>
-  <si>
-    <t>fatal: refusing to merge unrelated histories</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> git pull origin master --allow-unrelated-histories
- git push origin master
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Remove Activate WindowsWatermark</t>
   </si>
@@ -78,12 +29,6 @@
     <t>https://naveenautomationlabs.com/what-is-scope-under-dependency-in-pom-xml-for/#:~:text=The%20element%20can%20take,used%20for%20various%20build%20tasks.&amp;text=This%20is%20the%20default%20scope%2C%20used%20if%20none%20is%20specified.</t>
   </si>
   <si>
-    <t>Intellij Student License</t>
-  </si>
-  <si>
-    <t>1CTYKZ61N3</t>
-  </si>
-  <si>
     <t>Microservice</t>
   </si>
   <si>
@@ -130,23 +75,6 @@
   </si>
   <si>
     <t>School</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>initialize server :
-initdb.exe -U admin -A password -W -E utf8  -D C:\PostGreSQL\data
-To start db server :
-pg_ctl -D ^"C^:^\PostGreSQL^\data^" -l logfile start</t>
-  </si>
-  <si>
-    <t>installed
-username : admin
-password : admin@123</t>
-  </si>
-  <si>
-    <t>pg_ctl -D ^"C^:^\PostGreSQL^\data^" -l logfile start</t>
   </si>
   <si>
     <t>openfeign</t>
@@ -171,27 +99,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF4B4B4B"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -215,18 +129,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -250,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -262,21 +170,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -393,58 +286,46 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -742,113 +623,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -859,19 +636,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -879,11 +656,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="A28:C28"/>
     </sheetView>
   </sheetViews>
@@ -895,194 +672,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="C2" s="5">
         <v>8089</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="23">
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="20">
-        <v>8090</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="20">
-        <v>8091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="29">
-        <v>8092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="32"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="32"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="32"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="32"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="32"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="35"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="38">
+      <c r="C28" s="32">
         <v>9999</v>
       </c>
     </row>

--- a/resource/Notes.xlsx
+++ b/resource/Notes.xlsx
@@ -7,64 +7,15 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Local_setup" sheetId="1" r:id="rId1"/>
-    <sheet name="Tips" sheetId="2" r:id="rId2"/>
-    <sheet name="SchoolManagementProject" sheetId="3" r:id="rId3"/>
+    <sheet name="Tips" sheetId="2" r:id="rId1"/>
+    <sheet name="SchoolManagementProject" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>Installed</t>
-  </si>
-  <si>
-    <t>Intellij</t>
-  </si>
-  <si>
-    <t>installed</t>
-  </si>
-  <si>
-    <t>AWS Account</t>
-  </si>
-  <si>
-    <t>Software/Credential</t>
-  </si>
-  <si>
-    <t>Setup done</t>
-  </si>
-  <si>
-    <t>tanspra@gmail.com
-Password : M@Aws</t>
-  </si>
-  <si>
-    <t>Storage repository</t>
-  </si>
-  <si>
-    <t>https://github.com/tanspra/Storage.git</t>
-  </si>
-  <si>
-    <t>git local setup</t>
-  </si>
-  <si>
-    <t>https://docs.github.com/en/migrations/importing-source-code/using-the-command-line-to-import-source-code/adding-locally-hosted-code-to-github#adding-a-local-repository-to-github-using-git</t>
-  </si>
-  <si>
-    <t>fatal: refusing to merge unrelated histories</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> git pull origin master --allow-unrelated-histories
- git push origin master
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Remove Activate WindowsWatermark</t>
   </si>
@@ -76,12 +27,6 @@
   </si>
   <si>
     <t>https://naveenautomationlabs.com/what-is-scope-under-dependency-in-pom-xml-for/#:~:text=The%20element%20can%20take,used%20for%20various%20build%20tasks.&amp;text=This%20is%20the%20default%20scope%2C%20used%20if%20none%20is%20specified.</t>
-  </si>
-  <si>
-    <t>Intellij Student License</t>
-  </si>
-  <si>
-    <t>1CTYKZ61N3</t>
   </si>
   <si>
     <t>Gtaeway</t>
@@ -159,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,22 +112,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF4B4B4B"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,18 +122,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -210,43 +135,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,113 +442,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -658,19 +455,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -678,12 +475,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -693,22 +490,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>36</v>
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>8090</v>
@@ -716,25 +513,25 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>8091</v>
@@ -742,40 +539,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>8092</v>
@@ -783,37 +580,51 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="330">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
